--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H2">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N2">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q2">
-        <v>308.54650211256</v>
+        <v>999.2887949265054</v>
       </c>
       <c r="R2">
-        <v>2776.91851901304</v>
+        <v>8993.599154338548</v>
       </c>
       <c r="S2">
-        <v>0.2033506004460597</v>
+        <v>0.2773374301528132</v>
       </c>
       <c r="T2">
-        <v>0.2033506004460596</v>
+        <v>0.2773374301528132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H3">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q3">
-        <v>14.66582675013333</v>
+        <v>23.31579933901444</v>
       </c>
       <c r="R3">
-        <v>131.9924407512</v>
+        <v>209.84219405113</v>
       </c>
       <c r="S3">
-        <v>0.009665657057390753</v>
+        <v>0.006470946040295095</v>
       </c>
       <c r="T3">
-        <v>0.009665657057390753</v>
+        <v>0.006470946040295094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H4">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N4">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q4">
-        <v>15.25148548090667</v>
+        <v>32.72755422087334</v>
       </c>
       <c r="R4">
-        <v>137.26336932816</v>
+        <v>294.54798798786</v>
       </c>
       <c r="S4">
-        <v>0.01005164119185289</v>
+        <v>0.009083035683864963</v>
       </c>
       <c r="T4">
-        <v>0.01005164119185289</v>
+        <v>0.009083035683864963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H5">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N5">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O5">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P5">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q5">
-        <v>10.97522227752</v>
+        <v>18.23406389906456</v>
       </c>
       <c r="R5">
-        <v>98.77700049768001</v>
+        <v>164.106575091581</v>
       </c>
       <c r="S5">
-        <v>0.007233327958287725</v>
+        <v>0.005060587538541024</v>
       </c>
       <c r="T5">
-        <v>0.007233327958287722</v>
+        <v>0.005060587538541023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J6">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N6">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q6">
-        <v>437.343326129846</v>
+        <v>890.9413899669145</v>
       </c>
       <c r="R6">
-        <v>3936.089935168614</v>
+        <v>8018.472509702231</v>
       </c>
       <c r="S6">
-        <v>0.288235411390719</v>
+        <v>0.2472672532352094</v>
       </c>
       <c r="T6">
-        <v>0.288235411390719</v>
+        <v>0.2472672532352094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J7">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q7">
         <v>20.78779505660222</v>
@@ -883,10 +883,10 @@
         <v>187.09015550942</v>
       </c>
       <c r="S7">
-        <v>0.0137004003538098</v>
+        <v>0.005769336841173555</v>
       </c>
       <c r="T7">
-        <v>0.0137004003538098</v>
+        <v>0.005769336841173554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J8">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N8">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q8">
-        <v>21.61792580039511</v>
+        <v>29.17908496102666</v>
       </c>
       <c r="R8">
-        <v>194.561332203556</v>
+        <v>262.61176464924</v>
       </c>
       <c r="S8">
-        <v>0.01424750616782235</v>
+        <v>0.008098211926710246</v>
       </c>
       <c r="T8">
-        <v>0.01424750616782235</v>
+        <v>0.008098211926710244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J9">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N9">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O9">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P9">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q9">
-        <v>15.556618477282</v>
+        <v>16.25704432738378</v>
       </c>
       <c r="R9">
-        <v>140.009566295538</v>
+        <v>146.313398946454</v>
       </c>
       <c r="S9">
-        <v>0.01025274208784098</v>
+        <v>0.004511895778805952</v>
       </c>
       <c r="T9">
-        <v>0.01025274208784098</v>
+        <v>0.004511895778805951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H10">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N10">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q10">
-        <v>514.303460791625</v>
+        <v>1354.803960166577</v>
       </c>
       <c r="R10">
-        <v>4628.731147124625</v>
+        <v>12193.2356414992</v>
       </c>
       <c r="S10">
-        <v>0.3389567434645896</v>
+        <v>0.3760052655259556</v>
       </c>
       <c r="T10">
-        <v>0.3389567434645895</v>
+        <v>0.3760052655259556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H11">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q11">
-        <v>24.44586278347222</v>
+        <v>31.61081905383444</v>
       </c>
       <c r="R11">
-        <v>220.01276505125</v>
+        <v>284.49737148451</v>
       </c>
       <c r="S11">
-        <v>0.01611128579129888</v>
+        <v>0.008773102796635283</v>
       </c>
       <c r="T11">
-        <v>0.01611128579129888</v>
+        <v>0.008773102796635282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H12">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N12">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q12">
-        <v>25.42207320886111</v>
+        <v>44.37097692891334</v>
       </c>
       <c r="R12">
-        <v>228.79865887975</v>
+        <v>399.33879236022</v>
       </c>
       <c r="S12">
-        <v>0.01675466685316591</v>
+        <v>0.01231449084319977</v>
       </c>
       <c r="T12">
-        <v>0.01675466685316591</v>
+        <v>0.01231449084319977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H13">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N13">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O13">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P13">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q13">
-        <v>18.294146138875</v>
+        <v>24.72116379749856</v>
       </c>
       <c r="R13">
-        <v>164.647315249875</v>
+        <v>222.490474177487</v>
       </c>
       <c r="S13">
-        <v>0.01205693656067139</v>
+        <v>0.006860983604333576</v>
       </c>
       <c r="T13">
-        <v>0.01205693656067138</v>
+        <v>0.006860983604333575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H14">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I14">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J14">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N14">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q14">
-        <v>79.55859416658301</v>
+        <v>108.8241840896227</v>
       </c>
       <c r="R14">
-        <v>716.0273474992471</v>
+        <v>979.417656806604</v>
       </c>
       <c r="S14">
-        <v>0.05243387231308517</v>
+        <v>0.0302024997249292</v>
       </c>
       <c r="T14">
-        <v>0.05243387231308516</v>
+        <v>0.03020249972492919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H15">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I15">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J15">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q15">
-        <v>3.78157765699</v>
+        <v>2.539128680665555</v>
       </c>
       <c r="R15">
-        <v>34.03419891291</v>
+        <v>22.85215812599</v>
       </c>
       <c r="S15">
-        <v>0.002492285869122536</v>
+        <v>0.0007046966069252079</v>
       </c>
       <c r="T15">
-        <v>0.002492285869122536</v>
+        <v>0.0007046966069252077</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H16">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I16">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J16">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N16">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q16">
-        <v>3.932589530282001</v>
+        <v>3.564084180086667</v>
       </c>
       <c r="R16">
-        <v>35.39330577253801</v>
+        <v>32.07675762078</v>
       </c>
       <c r="S16">
-        <v>0.002591811726321234</v>
+        <v>0.0009891574411441592</v>
       </c>
       <c r="T16">
-        <v>0.002591811726321234</v>
+        <v>0.0009891574411441588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H17">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I17">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J17">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N17">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O17">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P17">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q17">
-        <v>2.829956745861</v>
+        <v>1.985719380151445</v>
       </c>
       <c r="R17">
-        <v>25.469610712749</v>
+        <v>17.871474421363</v>
       </c>
       <c r="S17">
-        <v>0.001865110767962214</v>
+        <v>0.000551106259463604</v>
       </c>
       <c r="T17">
-        <v>0.001865110767962213</v>
+        <v>0.0005511062594636038</v>
       </c>
     </row>
   </sheetData>
